--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H2">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I2">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J2">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N2">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O2">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P2">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q2">
-        <v>519.9263113925768</v>
+        <v>585.8634409991222</v>
       </c>
       <c r="R2">
-        <v>519.9263113925768</v>
+        <v>5272.770968992099</v>
       </c>
       <c r="S2">
-        <v>0.6675400472159601</v>
+        <v>0.6457758250903007</v>
       </c>
       <c r="T2">
-        <v>0.6675400472159601</v>
+        <v>0.6964330676608809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H3">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I3">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J3">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N3">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P3">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q3">
-        <v>45.25518692826109</v>
+        <v>54.81797779088399</v>
       </c>
       <c r="R3">
-        <v>45.25518692826109</v>
+        <v>493.361800117956</v>
       </c>
       <c r="S3">
-        <v>0.05810371384734237</v>
+        <v>0.06042385027015696</v>
       </c>
       <c r="T3">
-        <v>0.05810371384734237</v>
+        <v>0.06516373913136625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H4">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I4">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J4">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N4">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O4">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P4">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q4">
-        <v>7.295000877347148</v>
+        <v>8.14729815390711</v>
       </c>
       <c r="R4">
-        <v>7.295000877347148</v>
+        <v>73.325683385164</v>
       </c>
       <c r="S4">
-        <v>0.009366145015938333</v>
+        <v>0.008980468517754688</v>
       </c>
       <c r="T4">
-        <v>0.009366145015938333</v>
+        <v>0.009684932442271751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H5">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I5">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J5">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N5">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O5">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P5">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q5">
-        <v>3.847393550990806</v>
+        <v>6.491476737321333</v>
       </c>
       <c r="R5">
-        <v>3.847393550990806</v>
+        <v>58.423290635892</v>
       </c>
       <c r="S5">
-        <v>0.004939717833875047</v>
+        <v>0.007155317182702408</v>
       </c>
       <c r="T5">
-        <v>0.004939717833875047</v>
+        <v>0.007716608925301956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H6">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I6">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J6">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N6">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O6">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P6">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q6">
-        <v>26.2774487648488</v>
+        <v>28.39307665718533</v>
       </c>
       <c r="R6">
-        <v>26.2774487648488</v>
+        <v>170.358459943112</v>
       </c>
       <c r="S6">
-        <v>0.03373795286916611</v>
+        <v>0.03129664905165757</v>
       </c>
       <c r="T6">
-        <v>0.03373795286916611</v>
+        <v>0.02250112238097906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H7">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I7">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J7">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N7">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O7">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P7">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q7">
-        <v>30.28747473047618</v>
+        <v>33.65187728211389</v>
       </c>
       <c r="R7">
-        <v>30.28747473047618</v>
+        <v>302.8668955390251</v>
       </c>
       <c r="S7">
-        <v>0.03888647654218895</v>
+        <v>0.03709323247860281</v>
       </c>
       <c r="T7">
-        <v>0.03888647654218895</v>
+        <v>0.04000297422239255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H8">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I8">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J8">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N8">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P8">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q8">
-        <v>2.636268448968234</v>
+        <v>3.148733531361</v>
       </c>
       <c r="R8">
-        <v>2.636268448968234</v>
+        <v>28.338601782249</v>
       </c>
       <c r="S8">
-        <v>0.003384738810745492</v>
+        <v>0.003470733710122719</v>
       </c>
       <c r="T8">
-        <v>0.003384738810745492</v>
+        <v>0.003742991965418961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H9">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I9">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J9">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N9">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O9">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P9">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q9">
-        <v>0.4249585948817743</v>
+        <v>0.4679791543034444</v>
       </c>
       <c r="R9">
-        <v>0.4249585948817743</v>
+        <v>4.211812388731</v>
       </c>
       <c r="S9">
-        <v>0.0005456097802252095</v>
+        <v>0.0005158362910988002</v>
       </c>
       <c r="T9">
-        <v>0.0005456097802252095</v>
+        <v>0.0005563005561109605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H10">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I10">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J10">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N10">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O10">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P10">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q10">
-        <v>0.224123750617124</v>
+        <v>0.3728691078103333</v>
       </c>
       <c r="R10">
-        <v>0.224123750617124</v>
+        <v>3.355821970293001</v>
       </c>
       <c r="S10">
-        <v>0.0002877553526161267</v>
+        <v>0.000410999968416297</v>
       </c>
       <c r="T10">
-        <v>0.0002877553526161267</v>
+        <v>0.0004432404523236249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H11">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I11">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J11">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N11">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O11">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P11">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q11">
-        <v>1.530750700642659</v>
+        <v>1.630892567216333</v>
       </c>
       <c r="R11">
-        <v>1.530750700642659</v>
+        <v>9.785355403298002</v>
       </c>
       <c r="S11">
-        <v>0.001965350420997089</v>
+        <v>0.001797673176929544</v>
       </c>
       <c r="T11">
-        <v>0.001965350420997089</v>
+        <v>0.001292459908034556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H12">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I12">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J12">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N12">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O12">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P12">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q12">
-        <v>121.7968897558562</v>
+        <v>18.58935753896944</v>
       </c>
       <c r="R12">
-        <v>121.7968897558562</v>
+        <v>167.304217850725</v>
       </c>
       <c r="S12">
-        <v>0.1563765859831462</v>
+        <v>0.02049036833934238</v>
       </c>
       <c r="T12">
-        <v>0.1563765859831462</v>
+        <v>0.02209771491225173</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H13">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I13">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J13">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N13">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P13">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q13">
-        <v>10.60138887454808</v>
+        <v>1.739366066229</v>
       </c>
       <c r="R13">
-        <v>10.60138887454808</v>
+        <v>15.654294596061</v>
       </c>
       <c r="S13">
-        <v>0.01361125889343021</v>
+        <v>0.001917239544146237</v>
       </c>
       <c r="T13">
-        <v>0.01361125889343021</v>
+        <v>0.002067635494072272</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H14">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I14">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J14">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N14">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O14">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P14">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q14">
-        <v>1.708912201899022</v>
+        <v>0.2585125265732222</v>
       </c>
       <c r="R14">
-        <v>1.708912201899022</v>
+        <v>2.326612739159</v>
       </c>
       <c r="S14">
-        <v>0.00219409425325708</v>
+        <v>0.0002849488950177572</v>
       </c>
       <c r="T14">
-        <v>0.00219409425325708</v>
+        <v>0.0003073014277919825</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H15">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I15">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J15">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N15">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O15">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P15">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q15">
-        <v>0.9012826585411962</v>
+        <v>0.2059735658196666</v>
       </c>
       <c r="R15">
-        <v>0.9012826585411962</v>
+        <v>1.853762092377</v>
       </c>
       <c r="S15">
-        <v>0.001157168343387105</v>
+        <v>0.0002270371218029047</v>
       </c>
       <c r="T15">
-        <v>0.001157168343387105</v>
+        <v>0.0002448468231030237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3947903333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.184371</v>
+      </c>
+      <c r="I16">
+        <v>0.02391263179665035</v>
+      </c>
+      <c r="J16">
+        <v>0.02543145583511493</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.281991</v>
+      </c>
+      <c r="N16">
+        <v>4.563982</v>
+      </c>
+      <c r="O16">
+        <v>0.04152775423406879</v>
+      </c>
+      <c r="P16">
+        <v>0.0280737832126037</v>
+      </c>
+      <c r="Q16">
+        <v>0.9009079875536666</v>
+      </c>
+      <c r="R16">
+        <v>5.405447925321999</v>
+      </c>
+      <c r="S16">
+        <v>0.0009930378963410745</v>
+      </c>
+      <c r="T16">
+        <v>0.0007139571778959217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.9579895</v>
+      </c>
+      <c r="H17">
+        <v>5.915979</v>
+      </c>
+      <c r="I17">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J17">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>47.08665833333333</v>
+      </c>
+      <c r="N17">
+        <v>141.259975</v>
+      </c>
+      <c r="O17">
+        <v>0.8568847006715773</v>
+      </c>
+      <c r="P17">
+        <v>0.8689126983340025</v>
+      </c>
+      <c r="Q17">
+        <v>139.2818409400875</v>
+      </c>
+      <c r="R17">
+        <v>835.691045640525</v>
+      </c>
+      <c r="S17">
+        <v>0.1535252747633314</v>
+      </c>
+      <c r="T17">
+        <v>0.1103789415384774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.9579895</v>
+      </c>
+      <c r="H18">
+        <v>5.915979</v>
+      </c>
+      <c r="I18">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J18">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.405797</v>
+      </c>
+      <c r="N18">
+        <v>13.217391</v>
+      </c>
+      <c r="O18">
+        <v>0.0801768521528777</v>
+      </c>
+      <c r="P18">
+        <v>0.08130228593588212</v>
+      </c>
+      <c r="Q18">
+        <v>13.0323012651315</v>
+      </c>
+      <c r="R18">
+        <v>78.19380759078899</v>
+      </c>
+      <c r="S18">
+        <v>0.01436502862845179</v>
+      </c>
+      <c r="T18">
+        <v>0.01032791934502465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.9579895</v>
+      </c>
+      <c r="H19">
+        <v>5.915979</v>
+      </c>
+      <c r="I19">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J19">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6548096666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.964429</v>
+      </c>
+      <c r="O19">
+        <v>0.01191624984823596</v>
+      </c>
+      <c r="P19">
+        <v>0.01208351695570926</v>
+      </c>
+      <c r="Q19">
+        <v>1.9369201184985</v>
+      </c>
+      <c r="R19">
+        <v>11.621520710991</v>
+      </c>
+      <c r="S19">
+        <v>0.002134996144364717</v>
+      </c>
+      <c r="T19">
+        <v>0.001534982529534567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.77925804429671</v>
-      </c>
-      <c r="H16">
-        <v>2.77925804429671</v>
-      </c>
-      <c r="I16">
-        <v>0.1812424923109451</v>
-      </c>
-      <c r="J16">
-        <v>0.1812424923109451</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.21487248947315</v>
-      </c>
-      <c r="N16">
-        <v>2.21487248947315</v>
-      </c>
-      <c r="O16">
-        <v>0.04360668812788766</v>
-      </c>
-      <c r="P16">
-        <v>0.04360668812788766</v>
-      </c>
-      <c r="Q16">
-        <v>6.155702183459733</v>
-      </c>
-      <c r="R16">
-        <v>6.155702183459733</v>
-      </c>
-      <c r="S16">
-        <v>0.00790338483772446</v>
-      </c>
-      <c r="T16">
-        <v>0.00790338483772446</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.9579895</v>
+      </c>
+      <c r="H20">
+        <v>5.915979</v>
+      </c>
+      <c r="I20">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J20">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.521729</v>
+      </c>
+      <c r="N20">
+        <v>1.565187</v>
+      </c>
+      <c r="O20">
+        <v>0.009494443093240277</v>
+      </c>
+      <c r="P20">
+        <v>0.009627715561802291</v>
+      </c>
+      <c r="Q20">
+        <v>1.5432689038455</v>
+      </c>
+      <c r="R20">
+        <v>9.259613423073001</v>
+      </c>
+      <c r="S20">
+        <v>0.001701088820318667</v>
+      </c>
+      <c r="T20">
+        <v>0.001223019361073686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.9579895</v>
+      </c>
+      <c r="H21">
+        <v>5.915979</v>
+      </c>
+      <c r="I21">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J21">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.281991</v>
+      </c>
+      <c r="N21">
+        <v>4.563982</v>
+      </c>
+      <c r="O21">
+        <v>0.04152775423406879</v>
+      </c>
+      <c r="P21">
+        <v>0.0280737832126037</v>
+      </c>
+      <c r="Q21">
+        <v>6.750105417094501</v>
+      </c>
+      <c r="R21">
+        <v>27.000421668378</v>
+      </c>
+      <c r="S21">
+        <v>0.007440394109140599</v>
+      </c>
+      <c r="T21">
+        <v>0.00356624374569416</v>
       </c>
     </row>
   </sheetData>
